--- a/FileBaoCao/PhacThao_Login.xlsx
+++ b/FileBaoCao/PhacThao_Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\NAM5-HK1\PTTKDBCL-KTLTHDT\Electronic_Components_Website\FileBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73772C42-14D1-49DA-9444-417D3DD93D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80FF77A-7EDE-4146-B9F3-8CE9B78844DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{44F0B45A-FF1F-4A82-8CC8-BC8C046DD5AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44F0B45A-FF1F-4A82-8CC8-BC8C046DD5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="2" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>&gt;=5</t>
   </si>
   <si>
-    <t>Tìm kiếm việc và người giúp việc</t>
-  </si>
-  <si>
     <t>Thiết kế</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t xml:space="preserve">          Account.password</t>
+  </si>
+  <si>
+    <t>Website bán linh kiện điện tử</t>
   </si>
 </sst>
 </file>
@@ -1072,9 +1072,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1089,146 +1086,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1238,64 +1286,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3871,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CAF260-1086-4531-8582-B7246D13F2B9}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="F29" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25:Y25"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3888,113 +3888,113 @@
       <c r="A1" s="58"/>
       <c r="B1" s="59"/>
       <c r="C1" s="60"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="69"/>
-      <c r="I1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="I1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="53"/>
+      <c r="Q1" s="47"/>
       <c r="R1" s="58"/>
       <c r="S1" s="59"/>
       <c r="T1" s="60"/>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="Y1" s="69"/>
-      <c r="Z1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
+      <c r="Z1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
       <c r="AC1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="50" t="s">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="53"/>
+      <c r="AH1" s="47"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="61"/>
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="68"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="61"/>
       <c r="S2" s="62"/>
       <c r="T2" s="63"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="69"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1">
       <c r="A3" s="64"/>
@@ -4003,60 +4003,60 @@
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="54" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="64"/>
       <c r="S3" s="65"/>
       <c r="T3" s="66"/>
       <c r="U3" s="67"/>
       <c r="V3" s="67"/>
       <c r="W3" s="67"/>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="56" t="s">
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="54" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
       <c r="S5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="21">
-      <c r="H13" s="43" t="s">
-        <v>110</v>
+      <c r="H13" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -4064,245 +4064,245 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:34" ht="21">
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="17" spans="7:33" ht="21">
+      <c r="I17" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="17" spans="7:33" ht="21">
-      <c r="I17" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="22" spans="7:33">
       <c r="G22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="7:33">
       <c r="G23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="7:33">
       <c r="G24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S24" s="18" t="s">
         <v>30</v>
       </c>
       <c r="T24" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="U24" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="U24" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AA24" s="45" t="s">
+      <c r="AA24" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
     </row>
     <row r="25" spans="7:33">
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S25" s="20">
         <v>1</v>
       </c>
       <c r="T25" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="U25" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="U25" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
     </row>
     <row r="26" spans="7:33">
       <c r="G26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S26" s="23">
         <v>2</v>
       </c>
-      <c r="T26" s="44"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
     </row>
     <row r="27" spans="7:33">
       <c r="G27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S27" s="23">
         <v>3</v>
       </c>
-      <c r="T27" s="44"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
     </row>
     <row r="28" spans="7:33">
       <c r="S28" s="23">
         <v>4</v>
       </c>
-      <c r="T28" s="44"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
     </row>
     <row r="29" spans="7:33">
       <c r="S29" s="22">
         <v>5</v>
       </c>
       <c r="T29" s="21"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
       <c r="Z29" s="21"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
-      <c r="AG29" s="48"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="58"/>
       <c r="B33" s="59"/>
       <c r="C33" s="60"/>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="F33" s="47"/>
+      <c r="G33" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="H33" s="69"/>
-      <c r="I33" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
+      <c r="I33" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="50" t="s">
+      <c r="N33" s="55"/>
+      <c r="O33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="10" t="s">
+      <c r="P33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P33" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="53"/>
+      <c r="Q33" s="47"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="61"/>
       <c r="B34" s="62"/>
       <c r="C34" s="63"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="52"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="53"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="47"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1">
       <c r="A35" s="64"/>
@@ -4311,553 +4311,553 @@
       <c r="D35" s="67"/>
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56" t="s">
+      <c r="J35" s="51"/>
+      <c r="K35" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="54" t="s">
+      <c r="L35" s="49"/>
+      <c r="M35" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="55"/>
-      <c r="M35" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickTop="1"/>
     <row r="38" spans="1:17">
       <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="B40" s="56" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="B40" s="70" t="s">
+      <c r="C40" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70" t="s">
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="56"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" s="70"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="33" t="s">
+      <c r="N41" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="N41" s="33" t="s">
+      <c r="O41" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P41" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="70">
+        <v>1</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="O41" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="P41" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="B42" s="74">
-        <v>1</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="78"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="74"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="B44" s="31"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="B45" s="31"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="36"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="B46" s="31"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="36"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="35"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="B47" s="31"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="36"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="35"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="B48" s="31"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="36"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="31"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="36"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="35"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="31"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="36"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="35"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="31"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="36"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="35"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="31"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="36"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="35"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="31"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="36"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="35"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="31"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="36"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="35"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="31"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="36"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="35"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="31"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="36"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="35"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="31"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="36"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="35"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="31"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="36"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="35"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="31"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="36"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="35"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="31"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="36"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="35"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="31"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="36"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="35"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="31"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="36"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="35"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="31"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="36"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="35"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="B64" s="31"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="36"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="35"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="B65" s="31"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="36"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="35"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="B66" s="31"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="36"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="35"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="B67" s="31"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="36"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="35"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="B68" s="31"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="36"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="35"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="B69" s="31"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="36"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="35"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="B70" s="31"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="36"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="35"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="B71" s="32"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="58"/>
       <c r="B74" s="59"/>
       <c r="C74" s="60"/>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="F74" s="47"/>
+      <c r="G74" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="H74" s="69"/>
-      <c r="I74" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
+      <c r="I74" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
       <c r="L74" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M74" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M74" s="50" t="s">
+      <c r="N74" s="55"/>
+      <c r="O74" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N74" s="51"/>
-      <c r="O74" s="10" t="s">
+      <c r="P74" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P74" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q74" s="53"/>
+      <c r="Q74" s="47"/>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="61"/>
       <c r="B75" s="62"/>
       <c r="C75" s="63"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="68"/>
       <c r="H75" s="69"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
       <c r="L75" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="46"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M75" s="52"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="53"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="47"/>
     </row>
     <row r="76" spans="1:17" ht="15" thickBot="1">
       <c r="A76" s="64"/>
@@ -4866,89 +4866,158 @@
       <c r="D76" s="67"/>
       <c r="E76" s="67"/>
       <c r="F76" s="67"/>
-      <c r="G76" s="54" t="s">
+      <c r="G76" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56" t="s">
+      <c r="J76" s="51"/>
+      <c r="K76" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J76" s="57"/>
-      <c r="K76" s="54" t="s">
+      <c r="L76" s="49"/>
+      <c r="M76" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L76" s="55"/>
-      <c r="M76" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
     </row>
     <row r="77" spans="1:17" ht="15" thickTop="1"/>
     <row r="78" spans="1:17">
       <c r="B78" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="B80" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="41" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="B80" s="42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="42" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="AA25:AG25"/>
+    <mergeCell ref="AA26:AG26"/>
+    <mergeCell ref="AA27:AG27"/>
+    <mergeCell ref="AA28:AG28"/>
+    <mergeCell ref="AA29:AG29"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:J43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="A74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:F76"/>
+    <mergeCell ref="G74:H75"/>
+    <mergeCell ref="I74:K75"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="P75:Q75"/>
@@ -4965,75 +5034,6 @@
     <mergeCell ref="K40:L41"/>
     <mergeCell ref="E40:J41"/>
     <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:F76"/>
-    <mergeCell ref="G74:H75"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="AA27:AG27"/>
-    <mergeCell ref="AA28:AG28"/>
-    <mergeCell ref="AA29:AG29"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="AA25:AG25"/>
-    <mergeCell ref="AA26:AG26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
@@ -5053,8 +5053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA85E48F-FFBB-4036-BD4C-7BD1EAC5B9C3}">
   <dimension ref="A1:AX151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A113" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V142" sqref="V142"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A120" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5067,119 +5067,120 @@
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="12" width="8.88671875" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1">
       <c r="A1" s="58"/>
       <c r="B1" s="59"/>
       <c r="C1" s="60"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="69"/>
-      <c r="I1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="I1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="53"/>
+      <c r="Q1" s="47"/>
       <c r="R1" s="58"/>
       <c r="S1" s="59"/>
       <c r="T1" s="60"/>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="53" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="Y1" s="69"/>
-      <c r="Z1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
+      <c r="Z1" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
       <c r="AC1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="50" t="s">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="53"/>
+      <c r="AH1" s="47"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="61"/>
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="68"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="61"/>
       <c r="S2" s="62"/>
       <c r="T2" s="63"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="69"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
       <c r="AC2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
     </row>
     <row r="3" spans="1:34" ht="15" thickBot="1">
       <c r="A3" s="64"/>
@@ -5188,58 +5189,58 @@
       <c r="D3" s="67"/>
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="54" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="64"/>
       <c r="S3" s="65"/>
       <c r="T3" s="66"/>
       <c r="U3" s="67"/>
       <c r="V3" s="67"/>
       <c r="W3" s="67"/>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="56" t="s">
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="54" t="s">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
     </row>
     <row r="4" spans="1:34" ht="15" thickTop="1"/>
     <row r="5" spans="1:34">
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U5" s="62"/>
       <c r="V5" s="62"/>
@@ -5247,60 +5248,60 @@
     </row>
     <row r="6" spans="1:34">
       <c r="U6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="T8" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
+      <c r="T8" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
     </row>
     <row r="9" spans="1:34">
       <c r="U9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="T11" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
+      <c r="T11" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
     </row>
     <row r="12" spans="1:34">
       <c r="U12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="U13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="T15" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
+      <c r="T15" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
     </row>
     <row r="16" spans="1:34">
       <c r="U16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="20:25">
       <c r="U17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="20:25">
@@ -5310,12 +5311,12 @@
     </row>
     <row r="19" spans="20:25">
       <c r="T19" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="20:25">
       <c r="U20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="20:25">
@@ -5327,40 +5328,40 @@
     </row>
     <row r="22" spans="20:25">
       <c r="T22" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="20:25">
       <c r="U23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="20:25">
       <c r="U24" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
     </row>
     <row r="26" spans="20:25">
       <c r="T26" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="20:25">
       <c r="U27" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V27" s="14"/>
     </row>
     <row r="29" spans="20:25">
       <c r="T29" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="20:25">
       <c r="U30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:50">
@@ -5877,36 +5878,36 @@
       <c r="A51" s="58"/>
       <c r="B51" s="59"/>
       <c r="C51" s="60"/>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="F51" s="47"/>
+      <c r="G51" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="H51" s="69"/>
-      <c r="I51" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
+      <c r="I51" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M51" s="50" t="s">
+      <c r="N51" s="55"/>
+      <c r="O51" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="10" t="s">
+      <c r="P51" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P51" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q51" s="53"/>
+      <c r="Q51" s="47"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -5945,24 +5946,24 @@
       <c r="A52" s="61"/>
       <c r="B52" s="62"/>
       <c r="C52" s="63"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="68"/>
       <c r="H52" s="69"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
       <c r="L52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="46"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="52"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="53"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="47"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -6004,25 +6005,25 @@
       <c r="D53" s="67"/>
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="56" t="s">
+      <c r="J53" s="51"/>
+      <c r="K53" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J53" s="57"/>
-      <c r="K53" s="54" t="s">
+      <c r="L53" s="49"/>
+      <c r="M53" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
@@ -6064,12 +6065,12 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
@@ -6213,10 +6214,10 @@
       <c r="AX56" s="2"/>
     </row>
     <row r="57" spans="1:50">
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="88"/>
+      <c r="C57" s="110"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -6263,14 +6264,14 @@
       <c r="B58" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86" t="s">
+      <c r="D58" s="111"/>
+      <c r="E58" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="86"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="13" t="s">
         <v>32</v>
       </c>
@@ -6283,16 +6284,16 @@
       <c r="J58" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K58" s="86" t="s">
+      <c r="K58" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86" t="s">
+      <c r="L58" s="111"/>
+      <c r="M58" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="N58" s="86"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
@@ -6327,14 +6328,14 @@
       <c r="B59" s="7">
         <v>1</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85" t="s">
+      <c r="D59" s="112"/>
+      <c r="E59" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="85"/>
+      <c r="F59" s="112"/>
       <c r="G59" s="7" t="s">
         <v>38</v>
       </c>
@@ -6347,12 +6348,12 @@
       <c r="J59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="112"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
@@ -6387,14 +6388,14 @@
       <c r="B60" s="7">
         <v>2</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85" t="s">
+      <c r="D60" s="112"/>
+      <c r="E60" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="85"/>
+      <c r="F60" s="112"/>
       <c r="G60" s="7" t="s">
         <v>37</v>
       </c>
@@ -6407,16 +6408,16 @@
       <c r="J60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K60" s="85" t="s">
+      <c r="K60" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85" t="s">
+      <c r="L60" s="112"/>
+      <c r="M60" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="112"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -6487,10 +6488,10 @@
       <c r="AW61" s="8"/>
     </row>
     <row r="62" spans="1:50">
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="83"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -6528,26 +6529,26 @@
       <c r="B63" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C63" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86" t="s">
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86" t="s">
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
-      <c r="L63" s="86"/>
-      <c r="M63" s="86"/>
-      <c r="N63" s="86"/>
-      <c r="O63" s="86"/>
-      <c r="P63" s="86"/>
+      <c r="J63" s="111"/>
+      <c r="K63" s="111"/>
+      <c r="L63" s="111"/>
+      <c r="M63" s="111"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -6581,24 +6582,24 @@
       <c r="B64" s="20">
         <v>1</v>
       </c>
-      <c r="C64" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46" t="s">
+      <c r="C64" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="82"/>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="82"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -6632,24 +6633,24 @@
       <c r="B65" s="23">
         <v>2</v>
       </c>
-      <c r="C65" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84" t="s">
+      <c r="C65" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -6683,24 +6684,24 @@
       <c r="B66" s="23">
         <v>3</v>
       </c>
-      <c r="C66" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84" t="s">
+      <c r="C66" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
@@ -6734,24 +6735,24 @@
       <c r="B67" s="23">
         <v>4</v>
       </c>
-      <c r="C67" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84" t="s">
+      <c r="C67" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -6785,24 +6786,24 @@
       <c r="B68" s="23">
         <v>5</v>
       </c>
-      <c r="C68" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84" t="s">
+      <c r="C68" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="78"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="78"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
@@ -6836,24 +6837,24 @@
       <c r="B69" s="23">
         <v>6</v>
       </c>
-      <c r="C69" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84" t="s">
+      <c r="C69" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
@@ -6887,24 +6888,24 @@
       <c r="B70" s="23">
         <v>7</v>
       </c>
-      <c r="C70" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84" t="s">
+      <c r="C70" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
@@ -6938,24 +6939,24 @@
       <c r="B71" s="23">
         <v>8</v>
       </c>
-      <c r="C71" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84" t="s">
+      <c r="C71" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="78"/>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -6989,24 +6990,24 @@
       <c r="B72" s="22">
         <v>9</v>
       </c>
-      <c r="C72" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90" t="s">
+      <c r="C72" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
@@ -7141,10 +7142,10 @@
     </row>
     <row r="76" spans="2:49">
       <c r="B76" s="1"/>
-      <c r="C76" s="87" t="s">
+      <c r="C76" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="87"/>
+      <c r="D76" s="107"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -7174,13 +7175,13 @@
     <row r="77" spans="2:49">
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
+      <c r="D77" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -7235,10 +7236,10 @@
     </row>
     <row r="79" spans="2:49">
       <c r="B79" s="1"/>
-      <c r="C79" s="87" t="s">
+      <c r="C79" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="87"/>
+      <c r="D79" s="107"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -7268,13 +7269,13 @@
     <row r="80" spans="2:49">
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="93"/>
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
+      <c r="D80" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -7300,14 +7301,14 @@
     <row r="81" spans="2:30">
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
+      <c r="D81" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="109"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -7332,15 +7333,15 @@
     <row r="82" spans="2:30">
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="93"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="93"/>
+      <c r="D82" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="109"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -7394,7 +7395,7 @@
     <row r="84" spans="2:30">
       <c r="B84" s="1"/>
       <c r="C84" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="6"/>
@@ -7443,7 +7444,7 @@
     <row r="86" spans="2:30">
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -7479,7 +7480,7 @@
     <row r="88" spans="2:30">
       <c r="B88" s="1"/>
       <c r="C88" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -7515,7 +7516,7 @@
     <row r="90" spans="2:30">
       <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -7551,7 +7552,7 @@
     <row r="92" spans="2:30">
       <c r="B92" s="1"/>
       <c r="C92" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -7587,7 +7588,7 @@
     <row r="94" spans="2:30">
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -7623,7 +7624,7 @@
     <row r="96" spans="2:30">
       <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7641,7 +7642,7 @@
     </row>
     <row r="98" spans="1:48">
       <c r="C98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="3"/>
     </row>
@@ -7661,36 +7662,36 @@
       <c r="A101" s="58"/>
       <c r="B101" s="59"/>
       <c r="C101" s="60"/>
-      <c r="D101" s="53" t="s">
+      <c r="D101" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="53" t="s">
+      <c r="F101" s="47"/>
+      <c r="G101" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F101" s="53"/>
-      <c r="G101" s="68" t="s">
-        <v>42</v>
-      </c>
       <c r="H101" s="69"/>
-      <c r="I101" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
+      <c r="I101" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
       <c r="L101" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M101" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M101" s="50" t="s">
+      <c r="N101" s="55"/>
+      <c r="O101" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N101" s="51"/>
-      <c r="O101" s="10" t="s">
+      <c r="P101" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="P101" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q101" s="53"/>
+      <c r="Q101" s="47"/>
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -7727,24 +7728,24 @@
       <c r="A102" s="61"/>
       <c r="B102" s="62"/>
       <c r="C102" s="63"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
       <c r="G102" s="68"/>
       <c r="H102" s="69"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
       <c r="L102" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M102" s="46"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M102" s="52"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P102" s="52"/>
-      <c r="Q102" s="53"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="47"/>
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -7784,25 +7785,25 @@
       <c r="D103" s="67"/>
       <c r="E103" s="67"/>
       <c r="F103" s="67"/>
-      <c r="G103" s="54" t="s">
+      <c r="G103" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="49"/>
+      <c r="I103" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="55"/>
-      <c r="I103" s="56" t="s">
+      <c r="J103" s="51"/>
+      <c r="K103" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J103" s="57"/>
-      <c r="K103" s="54" t="s">
+      <c r="L103" s="49"/>
+      <c r="M103" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="L103" s="55"/>
-      <c r="M103" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N103" s="57"/>
-      <c r="O103" s="57"/>
-      <c r="P103" s="57"/>
-      <c r="Q103" s="57"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -7884,23 +7885,23 @@
       <c r="AV104" s="3"/>
     </row>
     <row r="105" spans="1:48">
-      <c r="B105" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="94"/>
+      <c r="B105" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="88"/>
     </row>
     <row r="106" spans="1:48">
       <c r="C106" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:48">
+      <c r="C107" s="89" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="107" spans="1:48">
-      <c r="C107" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
     </row>
     <row r="108" spans="1:48">
       <c r="C108" s="8"/>
@@ -7917,81 +7918,81 @@
       <c r="C110" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="45" t="s">
+      <c r="D110" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45" t="s">
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H110" s="80"/>
+      <c r="I110" s="80"/>
+      <c r="J110" s="80"/>
+      <c r="K110" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45" t="s">
+      <c r="L110" s="80"/>
+      <c r="M110" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L110" s="45"/>
-      <c r="M110" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N110" s="45" t="s">
+      <c r="N110" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="80"/>
+      <c r="P110" s="80"/>
     </row>
     <row r="111" spans="1:48">
       <c r="C111" s="20">
         <v>1</v>
       </c>
-      <c r="D111" s="46" t="s">
+      <c r="D111" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="81"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="46" t="s">
+      <c r="H111" s="81"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="81"/>
+      <c r="K111" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L111" s="46"/>
+      <c r="L111" s="81"/>
       <c r="M111" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N111" s="49"/>
-      <c r="O111" s="49"/>
-      <c r="P111" s="49"/>
+      <c r="N111" s="82"/>
+      <c r="O111" s="82"/>
+      <c r="P111" s="82"/>
     </row>
     <row r="112" spans="1:48">
       <c r="C112" s="22">
         <v>2</v>
       </c>
-      <c r="D112" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90" t="s">
+      <c r="D112" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="90"/>
-      <c r="I112" s="90"/>
-      <c r="J112" s="90"/>
-      <c r="K112" s="90" t="s">
+      <c r="H112" s="84"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="84"/>
+      <c r="K112" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L112" s="90"/>
+      <c r="L112" s="84"/>
       <c r="M112" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N112" s="48"/>
-      <c r="O112" s="48"/>
-      <c r="P112" s="48"/>
+      <c r="N112" s="79"/>
+      <c r="O112" s="79"/>
+      <c r="P112" s="79"/>
     </row>
     <row r="114" spans="3:16">
       <c r="C114" s="9" t="s">
@@ -8002,245 +8003,245 @@
       <c r="C115" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="45" t="s">
+      <c r="D115" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45" t="s">
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H115" s="80"/>
+      <c r="I115" s="80"/>
+      <c r="J115" s="80"/>
+      <c r="K115" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45" t="s">
+      <c r="L115" s="80"/>
+      <c r="M115" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L115" s="45"/>
-      <c r="M115" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N115" s="45" t="s">
+      <c r="N115" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="O115" s="45"/>
-      <c r="P115" s="45"/>
+      <c r="O115" s="80"/>
+      <c r="P115" s="80"/>
     </row>
     <row r="116" spans="3:16">
       <c r="C116" s="20">
         <v>1</v>
       </c>
-      <c r="D116" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
+      <c r="D116" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" s="81"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="81"/>
       <c r="M116" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N116" s="46"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
+      <c r="N116" s="81"/>
+      <c r="O116" s="81"/>
+      <c r="P116" s="81"/>
     </row>
     <row r="117" spans="3:16">
       <c r="C117" s="23">
         <v>2</v>
       </c>
-      <c r="D117" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="E117" s="84"/>
-      <c r="F117" s="84"/>
-      <c r="G117" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="H117" s="84"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
-      <c r="K117" s="84"/>
-      <c r="L117" s="84"/>
+      <c r="D117" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" s="92"/>
+      <c r="I117" s="92"/>
+      <c r="J117" s="92"/>
+      <c r="K117" s="92"/>
+      <c r="L117" s="92"/>
       <c r="M117" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N117" s="84"/>
-      <c r="O117" s="84"/>
-      <c r="P117" s="84"/>
+      <c r="N117" s="92"/>
+      <c r="O117" s="92"/>
+      <c r="P117" s="92"/>
     </row>
     <row r="118" spans="3:16">
       <c r="C118" s="23">
         <v>3</v>
       </c>
-      <c r="D118" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="H118" s="84"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="84"/>
-      <c r="K118" s="84"/>
-      <c r="L118" s="84"/>
+      <c r="D118" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" s="92"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="92"/>
+      <c r="I118" s="92"/>
+      <c r="J118" s="92"/>
+      <c r="K118" s="92"/>
+      <c r="L118" s="92"/>
       <c r="M118" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N118" s="84"/>
-      <c r="O118" s="84"/>
-      <c r="P118" s="84"/>
+      <c r="N118" s="92"/>
+      <c r="O118" s="92"/>
+      <c r="P118" s="92"/>
     </row>
     <row r="119" spans="3:16">
       <c r="C119" s="23">
         <v>4</v>
       </c>
-      <c r="D119" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="E119" s="84"/>
-      <c r="F119" s="84"/>
-      <c r="G119" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="H119" s="84"/>
-      <c r="I119" s="84"/>
-      <c r="J119" s="84"/>
-      <c r="K119" s="84"/>
-      <c r="L119" s="84"/>
+      <c r="D119" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="92"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
+      <c r="J119" s="92"/>
+      <c r="K119" s="92"/>
+      <c r="L119" s="92"/>
       <c r="M119" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N119" s="84"/>
-      <c r="O119" s="84"/>
-      <c r="P119" s="84"/>
+      <c r="N119" s="92"/>
+      <c r="O119" s="92"/>
+      <c r="P119" s="92"/>
     </row>
     <row r="120" spans="3:16">
       <c r="C120" s="23">
         <v>5</v>
       </c>
-      <c r="D120" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="H120" s="84"/>
-      <c r="I120" s="84"/>
-      <c r="J120" s="84"/>
-      <c r="K120" s="84"/>
-      <c r="L120" s="84"/>
+      <c r="D120" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" s="92"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="H120" s="92"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
+      <c r="K120" s="92"/>
+      <c r="L120" s="92"/>
       <c r="M120" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N120" s="84"/>
-      <c r="O120" s="84"/>
-      <c r="P120" s="84"/>
+      <c r="N120" s="92"/>
+      <c r="O120" s="92"/>
+      <c r="P120" s="92"/>
     </row>
     <row r="121" spans="3:16">
       <c r="C121" s="23">
         <v>6</v>
       </c>
-      <c r="D121" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="84"/>
-      <c r="F121" s="84"/>
-      <c r="G121" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="H121" s="84"/>
-      <c r="I121" s="84"/>
-      <c r="J121" s="84"/>
-      <c r="K121" s="84"/>
-      <c r="L121" s="84"/>
+      <c r="D121" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
+      <c r="K121" s="92"/>
+      <c r="L121" s="92"/>
       <c r="M121" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N121" s="84"/>
-      <c r="O121" s="84"/>
-      <c r="P121" s="84"/>
+      <c r="N121" s="92"/>
+      <c r="O121" s="92"/>
+      <c r="P121" s="92"/>
     </row>
     <row r="122" spans="3:16">
       <c r="C122" s="23">
         <v>7</v>
       </c>
-      <c r="D122" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="E122" s="84"/>
-      <c r="F122" s="84"/>
-      <c r="G122" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="H122" s="84"/>
-      <c r="I122" s="84"/>
-      <c r="J122" s="84"/>
-      <c r="K122" s="84"/>
-      <c r="L122" s="84"/>
+      <c r="D122" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" s="92"/>
+      <c r="I122" s="92"/>
+      <c r="J122" s="92"/>
+      <c r="K122" s="92"/>
+      <c r="L122" s="92"/>
       <c r="M122" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N122" s="84"/>
-      <c r="O122" s="84"/>
-      <c r="P122" s="84"/>
+      <c r="N122" s="92"/>
+      <c r="O122" s="92"/>
+      <c r="P122" s="92"/>
     </row>
     <row r="123" spans="3:16">
       <c r="C123" s="23">
         <v>8</v>
       </c>
-      <c r="D123" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="84"/>
-      <c r="G123" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="H123" s="84"/>
-      <c r="I123" s="84"/>
-      <c r="J123" s="84"/>
-      <c r="K123" s="84"/>
-      <c r="L123" s="84"/>
+      <c r="D123" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="92"/>
+      <c r="K123" s="92"/>
+      <c r="L123" s="92"/>
       <c r="M123" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N123" s="84"/>
-      <c r="O123" s="84"/>
-      <c r="P123" s="84"/>
+      <c r="N123" s="92"/>
+      <c r="O123" s="92"/>
+      <c r="P123" s="92"/>
     </row>
     <row r="124" spans="3:16">
       <c r="C124" s="22">
         <v>9</v>
       </c>
-      <c r="D124" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="H124" s="90"/>
-      <c r="I124" s="90"/>
-      <c r="J124" s="90"/>
-      <c r="K124" s="90"/>
-      <c r="L124" s="90"/>
+      <c r="D124" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" s="84"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124" s="84"/>
+      <c r="I124" s="84"/>
+      <c r="J124" s="84"/>
+      <c r="K124" s="84"/>
+      <c r="L124" s="84"/>
       <c r="M124" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N124" s="90"/>
-      <c r="O124" s="90"/>
-      <c r="P124" s="90"/>
+      <c r="N124" s="84"/>
+      <c r="O124" s="84"/>
+      <c r="P124" s="84"/>
     </row>
     <row r="125" spans="3:16">
       <c r="C125" s="8"/>
@@ -8260,27 +8261,27 @@
     </row>
     <row r="126" spans="3:16">
       <c r="C126" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="3:16">
+      <c r="C127" s="88" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="127" spans="3:16">
-      <c r="C127" s="94" t="s">
+      <c r="D127" s="88"/>
+      <c r="E127" s="88"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="88"/>
+    </row>
+    <row r="128" spans="3:16">
+      <c r="C128" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D127" s="94"/>
-      <c r="E127" s="94"/>
-      <c r="F127" s="94"/>
-      <c r="G127" s="94"/>
-    </row>
-    <row r="128" spans="3:16">
-      <c r="C128" s="94" t="s">
+      <c r="D128" s="88"/>
+    </row>
+    <row r="129" spans="3:16">
+      <c r="C129" s="89" t="s">
         <v>85</v>
-      </c>
-      <c r="D128" s="94"/>
-    </row>
-    <row r="129" spans="3:16">
-      <c r="C129" s="91" t="s">
-        <v>86</v>
       </c>
       <c r="D129" s="62"/>
       <c r="E129" s="62"/>
@@ -8289,375 +8290,345 @@
       <c r="C130" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D130" s="113" t="s">
+      <c r="D130" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="113"/>
-      <c r="F130" s="113"/>
-      <c r="G130" s="113" t="s">
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="H130" s="113"/>
-      <c r="I130" s="113"/>
-      <c r="J130" s="113"/>
-      <c r="K130" s="113"/>
-      <c r="L130" s="113"/>
-      <c r="M130" s="113" t="s">
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="85"/>
+      <c r="K130" s="85"/>
+      <c r="L130" s="85"/>
+      <c r="M130" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="N130" s="113"/>
-      <c r="O130" s="113"/>
-      <c r="P130" s="113"/>
+      <c r="N130" s="85"/>
+      <c r="O130" s="85"/>
+      <c r="P130" s="85"/>
     </row>
     <row r="131" spans="3:16">
       <c r="C131" s="28">
         <v>1</v>
       </c>
-      <c r="D131" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="E131" s="99"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="99" t="s">
+      <c r="D131" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="H131" s="99"/>
-      <c r="I131" s="99"/>
-      <c r="J131" s="99"/>
-      <c r="K131" s="99"/>
-      <c r="L131" s="99"/>
-      <c r="M131" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="N131" s="110"/>
-      <c r="O131" s="110"/>
-      <c r="P131" s="110"/>
+      <c r="H131" s="86"/>
+      <c r="I131" s="86"/>
+      <c r="J131" s="86"/>
+      <c r="K131" s="86"/>
+      <c r="L131" s="86"/>
+      <c r="M131" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="N131" s="87"/>
+      <c r="O131" s="87"/>
+      <c r="P131" s="87"/>
     </row>
     <row r="132" spans="3:16">
       <c r="C132" s="28">
         <v>2</v>
       </c>
-      <c r="D132" s="99" t="s">
+      <c r="D132" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E132" s="99"/>
-      <c r="F132" s="99"/>
-      <c r="G132" s="99" t="s">
+      <c r="E132" s="86"/>
+      <c r="F132" s="86"/>
+      <c r="G132" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="99"/>
-      <c r="I132" s="99"/>
-      <c r="J132" s="99"/>
-      <c r="K132" s="99"/>
-      <c r="L132" s="99"/>
-      <c r="M132" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="N132" s="110"/>
-      <c r="O132" s="110"/>
-      <c r="P132" s="110"/>
+      <c r="H132" s="86"/>
+      <c r="I132" s="86"/>
+      <c r="J132" s="86"/>
+      <c r="K132" s="86"/>
+      <c r="L132" s="86"/>
+      <c r="M132" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="N132" s="87"/>
+      <c r="O132" s="87"/>
+      <c r="P132" s="87"/>
     </row>
     <row r="133" spans="3:16">
       <c r="C133" s="28">
         <v>3</v>
       </c>
-      <c r="D133" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="E133" s="99"/>
-      <c r="F133" s="99"/>
-      <c r="G133" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H133" s="99"/>
-      <c r="I133" s="99"/>
-      <c r="J133" s="99"/>
-      <c r="K133" s="99"/>
-      <c r="L133" s="99"/>
-      <c r="M133" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="N133" s="110"/>
-      <c r="O133" s="110"/>
-      <c r="P133" s="110"/>
+      <c r="D133" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H133" s="86"/>
+      <c r="I133" s="86"/>
+      <c r="J133" s="86"/>
+      <c r="K133" s="86"/>
+      <c r="L133" s="86"/>
+      <c r="M133" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="N133" s="87"/>
+      <c r="O133" s="87"/>
+      <c r="P133" s="87"/>
     </row>
     <row r="134" spans="3:16">
-      <c r="C134" s="99">
+      <c r="C134" s="86">
         <v>4</v>
       </c>
-      <c r="D134" s="99" t="s">
+      <c r="D134" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="99"/>
-      <c r="F134" s="99"/>
-      <c r="G134" s="108" t="s">
+      <c r="E134" s="86"/>
+      <c r="F134" s="86"/>
+      <c r="G134" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="108"/>
-      <c r="I134" s="108"/>
-      <c r="J134" s="108"/>
-      <c r="K134" s="108"/>
-      <c r="L134" s="108"/>
-      <c r="M134" s="110" t="s">
+      <c r="H134" s="103"/>
+      <c r="I134" s="103"/>
+      <c r="J134" s="103"/>
+      <c r="K134" s="103"/>
+      <c r="L134" s="103"/>
+      <c r="M134" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="N134" s="87"/>
+      <c r="O134" s="87"/>
+      <c r="P134" s="87"/>
+    </row>
+    <row r="135" spans="3:16">
+      <c r="C135" s="95"/>
+      <c r="D135" s="95"/>
+      <c r="E135" s="95"/>
+      <c r="F135" s="95"/>
+      <c r="G135" s="104"/>
+      <c r="H135" s="104"/>
+      <c r="I135" s="104"/>
+      <c r="J135" s="104"/>
+      <c r="K135" s="104"/>
+      <c r="L135" s="104"/>
+      <c r="M135" s="105"/>
+      <c r="N135" s="105"/>
+      <c r="O135" s="105"/>
+      <c r="P135" s="105"/>
+    </row>
+    <row r="137" spans="3:16">
+      <c r="C137" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="N134" s="110"/>
-      <c r="O134" s="110"/>
-      <c r="P134" s="110"/>
-    </row>
-    <row r="135" spans="3:16">
-      <c r="C135" s="100"/>
-      <c r="D135" s="100"/>
-      <c r="E135" s="100"/>
-      <c r="F135" s="100"/>
-      <c r="G135" s="109"/>
-      <c r="H135" s="109"/>
-      <c r="I135" s="109"/>
-      <c r="J135" s="109"/>
-      <c r="K135" s="109"/>
-      <c r="L135" s="109"/>
-      <c r="M135" s="111"/>
-      <c r="N135" s="111"/>
-      <c r="O135" s="111"/>
-      <c r="P135" s="111"/>
-    </row>
-    <row r="137" spans="3:16">
-      <c r="C137" s="91" t="s">
+      <c r="D137" s="89"/>
+    </row>
+    <row r="138" spans="3:16">
+      <c r="C138" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="96"/>
+      <c r="E138" s="96"/>
+      <c r="F138" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="96"/>
+      <c r="H138" s="96"/>
+      <c r="I138" s="96"/>
+      <c r="J138" s="96"/>
+      <c r="K138" s="96"/>
+      <c r="L138" s="96"/>
+      <c r="M138" s="96"/>
+      <c r="N138" s="96"/>
+      <c r="O138" s="96"/>
+      <c r="P138" s="96"/>
+    </row>
+    <row r="139" spans="3:16">
+      <c r="C139" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G139" s="98"/>
+      <c r="H139" s="98"/>
+      <c r="I139" s="98"/>
+      <c r="J139" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D137" s="91"/>
-    </row>
-    <row r="138" spans="3:16">
-      <c r="C138" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="101"/>
-      <c r="E138" s="101"/>
-      <c r="F138" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="101"/>
-      <c r="H138" s="101"/>
-      <c r="I138" s="101"/>
-      <c r="J138" s="101"/>
-      <c r="K138" s="101"/>
-      <c r="L138" s="101"/>
-      <c r="M138" s="101"/>
-      <c r="N138" s="101"/>
-      <c r="O138" s="101"/>
-      <c r="P138" s="101"/>
-    </row>
-    <row r="139" spans="3:16">
-      <c r="C139" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D139" s="53"/>
-      <c r="E139" s="53"/>
-      <c r="F139" s="102" t="s">
+      <c r="K139" s="98"/>
+      <c r="L139" s="98"/>
+      <c r="M139" s="98"/>
+      <c r="N139" s="98"/>
+      <c r="O139" s="98"/>
+      <c r="P139" s="101"/>
+    </row>
+    <row r="140" spans="3:16">
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="G139" s="103"/>
-      <c r="H139" s="103"/>
-      <c r="I139" s="103"/>
-      <c r="J139" s="103" t="s">
+      <c r="G140" s="100"/>
+      <c r="H140" s="100"/>
+      <c r="I140" s="100"/>
+      <c r="J140" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="K140" s="100"/>
+      <c r="L140" s="100"/>
+      <c r="M140" s="100"/>
+      <c r="N140" s="100"/>
+      <c r="O140" s="100"/>
+      <c r="P140" s="102"/>
+    </row>
+    <row r="149" spans="3:16">
+      <c r="C149" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="106"/>
+      <c r="E149" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="106"/>
+      <c r="G149" s="106"/>
+      <c r="H149" s="106"/>
+      <c r="I149" s="106"/>
+      <c r="J149" s="106"/>
+      <c r="K149" s="106"/>
+      <c r="L149" s="106"/>
+      <c r="M149" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N149" s="106"/>
+      <c r="O149" s="106"/>
+      <c r="P149" s="106"/>
+    </row>
+    <row r="150" spans="3:16">
+      <c r="C150" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="93"/>
+      <c r="E150" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="K139" s="103"/>
-      <c r="L139" s="103"/>
-      <c r="M139" s="103"/>
-      <c r="N139" s="103"/>
-      <c r="O139" s="103"/>
-      <c r="P139" s="106"/>
-    </row>
-    <row r="140" spans="3:16">
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="G140" s="105"/>
-      <c r="H140" s="105"/>
-      <c r="I140" s="105"/>
-      <c r="J140" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="K140" s="105"/>
-      <c r="L140" s="105"/>
-      <c r="M140" s="105"/>
-      <c r="N140" s="105"/>
-      <c r="O140" s="105"/>
-      <c r="P140" s="107"/>
-    </row>
-    <row r="149" spans="3:16">
-      <c r="C149" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="112"/>
-      <c r="E149" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" s="112"/>
-      <c r="G149" s="112"/>
-      <c r="H149" s="112"/>
-      <c r="I149" s="112"/>
-      <c r="J149" s="112"/>
-      <c r="K149" s="112"/>
-      <c r="L149" s="112"/>
-      <c r="M149" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="N149" s="112"/>
-      <c r="O149" s="112"/>
-      <c r="P149" s="112"/>
-    </row>
-    <row r="150" spans="3:16">
-      <c r="C150" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="97"/>
-      <c r="E150" s="84" t="s">
+      <c r="F150" s="92"/>
+      <c r="G150" s="92"/>
+      <c r="H150" s="92"/>
+      <c r="I150" s="92"/>
+      <c r="J150" s="92"/>
+      <c r="K150" s="92"/>
+      <c r="L150" s="92"/>
+      <c r="M150" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="N150" s="90"/>
+      <c r="O150" s="90"/>
+      <c r="P150" s="90"/>
+    </row>
+    <row r="151" spans="3:16">
+      <c r="C151" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="94"/>
+      <c r="E151" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F150" s="84"/>
-      <c r="G150" s="84"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="84"/>
-      <c r="L150" s="84"/>
-      <c r="M150" s="95" t="s">
+      <c r="F151" s="84"/>
+      <c r="G151" s="84"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="84"/>
+      <c r="J151" s="84"/>
+      <c r="K151" s="84"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="N150" s="95"/>
-      <c r="O150" s="95"/>
-      <c r="P150" s="95"/>
-    </row>
-    <row r="151" spans="3:16">
-      <c r="C151" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="98"/>
-      <c r="E151" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
-      <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
-      <c r="J151" s="90"/>
-      <c r="K151" s="90"/>
-      <c r="L151" s="90"/>
-      <c r="M151" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="N151" s="96"/>
-      <c r="O151" s="96"/>
-      <c r="P151" s="96"/>
+      <c r="N151" s="91"/>
+      <c r="O151" s="91"/>
+      <c r="P151" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="R1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AB2"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="M130:P130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="G131:L131"/>
-    <mergeCell ref="G132:L132"/>
-    <mergeCell ref="G133:L133"/>
-    <mergeCell ref="M131:P131"/>
-    <mergeCell ref="M132:P132"/>
-    <mergeCell ref="M133:P133"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="G130:L130"/>
-    <mergeCell ref="M150:P150"/>
-    <mergeCell ref="M151:P151"/>
-    <mergeCell ref="E150:L150"/>
-    <mergeCell ref="E151:L151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="F138:P138"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E140"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J139:P139"/>
-    <mergeCell ref="J140:P140"/>
-    <mergeCell ref="G134:L135"/>
-    <mergeCell ref="M134:P135"/>
-    <mergeCell ref="D134:F135"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:L149"/>
-    <mergeCell ref="M149:P149"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="N119:P119"/>
-    <mergeCell ref="N120:P120"/>
-    <mergeCell ref="N121:P121"/>
-    <mergeCell ref="N122:P122"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G120:J120"/>
-    <mergeCell ref="G121:J121"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="N116:P116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="N115:P115"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="G112:J112"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="I69:P69"/>
+    <mergeCell ref="I70:P70"/>
+    <mergeCell ref="I71:P71"/>
+    <mergeCell ref="I64:P64"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="A51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="I51:K52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:F3"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:Q53"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I63:P63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I65:P65"/>
+    <mergeCell ref="I66:P66"/>
+    <mergeCell ref="I67:P67"/>
+    <mergeCell ref="I68:P68"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:P72"/>
     <mergeCell ref="C107:F107"/>
     <mergeCell ref="D110:F110"/>
     <mergeCell ref="G110:J110"/>
@@ -8682,77 +8653,107 @@
     <mergeCell ref="E101:F103"/>
     <mergeCell ref="G101:H102"/>
     <mergeCell ref="I101:K102"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:Q53"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I63:P63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I65:P65"/>
-    <mergeCell ref="I66:P66"/>
-    <mergeCell ref="I67:P67"/>
-    <mergeCell ref="I68:P68"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:P72"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="A51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="I51:K52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:F3"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="I69:P69"/>
-    <mergeCell ref="I70:P70"/>
-    <mergeCell ref="I71:P71"/>
-    <mergeCell ref="I64:P64"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="N116:P116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="N115:P115"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="N119:P119"/>
+    <mergeCell ref="N120:P120"/>
+    <mergeCell ref="N121:P121"/>
+    <mergeCell ref="N122:P122"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M150:P150"/>
+    <mergeCell ref="M151:P151"/>
+    <mergeCell ref="E150:L150"/>
+    <mergeCell ref="E151:L151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="F138:P138"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E140"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J139:P139"/>
+    <mergeCell ref="J140:P140"/>
+    <mergeCell ref="G134:L135"/>
+    <mergeCell ref="M134:P135"/>
+    <mergeCell ref="D134:F135"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:L149"/>
+    <mergeCell ref="M149:P149"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="M130:P130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="G131:L131"/>
+    <mergeCell ref="G132:L132"/>
+    <mergeCell ref="G133:L133"/>
+    <mergeCell ref="M131:P131"/>
+    <mergeCell ref="M132:P132"/>
+    <mergeCell ref="M133:P133"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="G130:L130"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="R1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
